--- a/stock_predictor_ai/data/cleaned/KKR.xlsx
+++ b/stock_predictor_ai/data/cleaned/KKR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3757"/>
+  <dimension ref="A1:F3758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75589,6 +75589,26 @@
         <v>720242</v>
       </c>
     </row>
+    <row r="3758">
+      <c r="A3758" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B3758" t="n">
+        <v>139.7075958251953</v>
+      </c>
+      <c r="C3758" t="n">
+        <v>140.2100067138672</v>
+      </c>
+      <c r="D3758" t="n">
+        <v>138.3074035644531</v>
+      </c>
+      <c r="E3758" t="n">
+        <v>138.9700012207031</v>
+      </c>
+      <c r="F3758" t="n">
+        <v>227022</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/KKR.xlsx
+++ b/stock_predictor_ai/data/cleaned/KKR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3758"/>
+  <dimension ref="A1:F3759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75609,6 +75609,26 @@
         <v>227022</v>
       </c>
     </row>
+    <row r="3759">
+      <c r="A3759" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B3759" t="n">
+        <v>137.2100067138672</v>
+      </c>
+      <c r="C3759" t="n">
+        <v>140.2700042724609</v>
+      </c>
+      <c r="D3759" t="n">
+        <v>136.7400054931641</v>
+      </c>
+      <c r="E3759" t="n">
+        <v>139.4299926757812</v>
+      </c>
+      <c r="F3759" t="n">
+        <v>2675600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/KKR.xlsx
+++ b/stock_predictor_ai/data/cleaned/KKR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3759"/>
+  <dimension ref="A1:F3760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75629,6 +75629,26 @@
         <v>2675600</v>
       </c>
     </row>
+    <row r="3760">
+      <c r="A3760" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B3760" t="n">
+        <v>145.4199981689453</v>
+      </c>
+      <c r="C3760" t="n">
+        <v>146.6600036621094</v>
+      </c>
+      <c r="D3760" t="n">
+        <v>144.8699951171875</v>
+      </c>
+      <c r="E3760" t="n">
+        <v>146.6199951171875</v>
+      </c>
+      <c r="F3760" t="n">
+        <v>244810</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/KKR.xlsx
+++ b/stock_predictor_ai/data/cleaned/KKR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3760"/>
+  <dimension ref="A1:F3761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75649,6 +75649,26 @@
         <v>244810</v>
       </c>
     </row>
+    <row r="3761">
+      <c r="A3761" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B3761" t="n">
+        <v>138.0899963378906</v>
+      </c>
+      <c r="C3761" t="n">
+        <v>138.1217956542969</v>
+      </c>
+      <c r="D3761" t="n">
+        <v>135.0599975585938</v>
+      </c>
+      <c r="E3761" t="n">
+        <v>136.8200073242188</v>
+      </c>
+      <c r="F3761" t="n">
+        <v>1172145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/KKR.xlsx
+++ b/stock_predictor_ai/data/cleaned/KKR.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3761"/>
+  <dimension ref="A1:F3756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75569,106 +75571,6 @@
         <v>3063500</v>
       </c>
     </row>
-    <row r="3757">
-      <c r="A3757" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B3757" t="n">
-        <v>138.4732055664062</v>
-      </c>
-      <c r="C3757" t="n">
-        <v>138.8899993896484</v>
-      </c>
-      <c r="D3757" t="n">
-        <v>136.0350036621094</v>
-      </c>
-      <c r="E3757" t="n">
-        <v>136.7599945068359</v>
-      </c>
-      <c r="F3757" t="n">
-        <v>720242</v>
-      </c>
-    </row>
-    <row r="3758">
-      <c r="A3758" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B3758" t="n">
-        <v>139.7075958251953</v>
-      </c>
-      <c r="C3758" t="n">
-        <v>140.2100067138672</v>
-      </c>
-      <c r="D3758" t="n">
-        <v>138.3074035644531</v>
-      </c>
-      <c r="E3758" t="n">
-        <v>138.9700012207031</v>
-      </c>
-      <c r="F3758" t="n">
-        <v>227022</v>
-      </c>
-    </row>
-    <row r="3759">
-      <c r="A3759" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B3759" t="n">
-        <v>137.2100067138672</v>
-      </c>
-      <c r="C3759" t="n">
-        <v>140.2700042724609</v>
-      </c>
-      <c r="D3759" t="n">
-        <v>136.7400054931641</v>
-      </c>
-      <c r="E3759" t="n">
-        <v>139.4299926757812</v>
-      </c>
-      <c r="F3759" t="n">
-        <v>2675600</v>
-      </c>
-    </row>
-    <row r="3760">
-      <c r="A3760" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B3760" t="n">
-        <v>145.4199981689453</v>
-      </c>
-      <c r="C3760" t="n">
-        <v>146.6600036621094</v>
-      </c>
-      <c r="D3760" t="n">
-        <v>144.8699951171875</v>
-      </c>
-      <c r="E3760" t="n">
-        <v>146.6199951171875</v>
-      </c>
-      <c r="F3760" t="n">
-        <v>244810</v>
-      </c>
-    </row>
-    <row r="3761">
-      <c r="A3761" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B3761" t="n">
-        <v>138.0899963378906</v>
-      </c>
-      <c r="C3761" t="n">
-        <v>138.1217956542969</v>
-      </c>
-      <c r="D3761" t="n">
-        <v>135.0599975585938</v>
-      </c>
-      <c r="E3761" t="n">
-        <v>136.8200073242188</v>
-      </c>
-      <c r="F3761" t="n">
-        <v>1172145</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
